--- a/explanation_results.xlsx
+++ b/explanation_results.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,7 +464,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1.00000001330409</v>
+        <v>1.000000014545478</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -478,7 +478,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TemplateLayoutPathResolver.js</t>
+          <t>app 16.js</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.000000007181674</v>
+        <v>1.000000013854847</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -501,7 +501,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TemplatePassthrough.js</t>
+          <t>TemplateLayoutPathResolver.js</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -510,7 +510,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.00000000224909</v>
+        <v>1.000000007181674</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -524,7 +524,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TemplateConfig.js</t>
+          <t>TemplatePassthrough.js</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1.000000001509622</v>
+        <v>1.000000002697894</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -547,7 +547,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TemplatePassthroughManager.js</t>
+          <t>TemplateConfig.js</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -556,7 +556,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1.000000000362234</v>
+        <v>1.000000001875529</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -570,7 +570,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TemplatePermalink.js</t>
+          <t>help.js</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -579,7 +579,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1.00000000031858</v>
+        <v>1.000000001622358</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1.000000000245938</v>
+        <v>1.000000000475676</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -616,7 +616,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>WatchQueue.js</t>
+          <t>TemplatePassthroughManager.js</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -625,7 +625,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1.00000000004399</v>
+        <v>1.000000000377371</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -639,7 +639,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TemplateRender.js</t>
+          <t>TemplatePermalink.js</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -648,7 +648,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1.000000000000887</v>
+        <v>1.000000000360107</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>EleventyExtensionMap.js</t>
+          <t>OnCanvasSelection.js</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1.000000000000678</v>
+        <v>1.000000000154835</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -685,7 +685,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>TemplateWriter.js</t>
+          <t>WatchQueue.js</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -694,7 +694,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1.0000000000003</v>
+        <v>1.00000000004399</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -708,7 +708,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>TemplateMap.js</t>
+          <t>tool-options.js</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1.000000000000067</v>
+        <v>1.000000000035281</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -731,7 +731,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Template.js</t>
+          <t>app 10.js</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -740,7 +740,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1.000000000000001</v>
+        <v>1.000000000014608</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CoreMinimal.js</t>
+          <t>app 15.js</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -763,7 +763,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>1.000000000013346</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>EleventyFiles.js</t>
+          <t>app-state.js</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>1.000000000010003</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>GlobalDependencyMap.js</t>
+          <t>app 4.js</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -809,7 +809,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>1.000000000009497</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -823,7 +823,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>TemplateContent.js</t>
+          <t>menus.js</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>1.000000000005521</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>UserConfig.js</t>
+          <t>TemplateRender.js</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -855,7 +855,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>1.000000000001081</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -869,7 +869,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>TemplateBehavior.js</t>
+          <t>EleventyExtensionMap.js</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -878,7 +878,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.999999544487423</v>
+        <v>1.000000000000717</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Watch.js</t>
+          <t>TemplateWriter.js</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.9999915738126219</v>
+        <v>1.000000000000351</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>TemplateFileSlug.js</t>
+          <t>app 11.js</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.9999883649215917</v>
+        <v>1.000000000000125</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Eleventy.js</t>
+          <t>TemplateMap.js</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -947,7 +947,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.9998883882872178</v>
+        <v>1.000000000000064</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -961,7 +961,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>LayoutCache.js</t>
+          <t>Template.js</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -970,7 +970,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.9998743130709045</v>
+        <v>1.000000000000003</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -984,7 +984,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>TemplateGlob.js</t>
+          <t>TemplateContent.js</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -993,7 +993,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.9994474491104484</v>
+        <v>1</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>FileSystemSearch.js</t>
+          <t>CoreMinimal.js</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.9973974653985351</v>
+        <v>1</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>TemplateLayout.js</t>
+          <t>EleventyFiles.js</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1039,7 +1039,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.9961192898917943</v>
+        <v>1</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>TemplateCollection.js</t>
+          <t>GlobalDependencyMap.js</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1062,7 +1062,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.9956223904155195</v>
+        <v>1</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1076,7 +1076,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>defaultConfigExtended.client.js</t>
+          <t>app 20.js</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1085,7 +1085,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.9890691703185439</v>
+        <v>1</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Core.js</t>
+          <t>app 5.js</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1108,7 +1108,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.9644200950860977</v>
+        <v>1</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>defaultConfig.js</t>
+          <t>app 9.js</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1131,7 +1131,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.9536645486950874</v>
+        <v>1</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1145,7 +1145,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>EventBus.js</t>
+          <t>custom-uibench.js</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1154,7 +1154,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.8843229487538338</v>
+        <v>1</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1168,18 +1168,2479 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
+          <t>helpers.js</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>readable</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>image-manipulation.js</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>readable</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>sessions.js</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>readable</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>speech-recognition.js</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>readable</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>tools.js</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>readable</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>uibench.js</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>readable</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>discord-activity-client.js</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>readable</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>0.9999999466030403</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>edit-colors.js</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>readable</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>0.9999998750591814</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>electron-injected.js</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>readable</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>0.9999998213547343</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>TemplateBehavior.js</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>readable</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>0.999999544487423</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>OnCanvasTextBox.js</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>readable</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>0.9999992741002757</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>app 12.js</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>readable</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>0.9999988788381415</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>app 6.js</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>readable</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>0.9999986026064107</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>eye-gaze-mode.js</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>readable</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>0.9999984763951488</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>app.js</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>readable</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>0.9999971621944042</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>app 7.js</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>readable</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>0.9999970573653627</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>theme.js</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>readable</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>0.9999969864720697</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>extra-tools.js</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>readable</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>0.9999950012470435</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>start.js</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>readable</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>0.9999949364341774</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>events.spec.js</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>readable</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>0.9999945774420667</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>msgbox.js</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>readable</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>0.9999935261339488</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Watch.js</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>readable</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>0.9999915846356089</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>TemplateFileSlug.js</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>readable</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>0.999989709314832</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>app 13.js</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>readable</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>0.9999821121891728</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>storage.js</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>readable</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>0.9999811697798577</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>color-data.js</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>readable</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>0.9999650921381544</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>ENV.js</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>readable</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>0.9999489581277885</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>copy-inkscape-labels.js</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>readable</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>0.999929533143586</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>repack-spritesheet.js</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>readable</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>0.9999212621842162</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>error-handling-basic.js</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>readable</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>0.9998950507724658</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>app 19.js</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>readable</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>0.9998893915108056</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>LayoutCache.js</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>readable</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>0.9998603115964215</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>$Component.js</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>readable</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>0.9998579128878191</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Eleventy.js</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>readable</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>0.9998139894159976</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>webpackUtils.js</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>readable</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>0.9998137943184702</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>app-localization.js</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>readable</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>0.9996410256135277</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>app 2.js</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>readable</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>0.9995869589038193</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>TemplateGlob.js</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>readable</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>0.9994474491104484</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>createProject.js</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>readable</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>0.9993991941446438</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>OnCanvasObject.js</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>readable</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>0.9992650049971417</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>vaporwave-fun.js</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>readable</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>0.9992237138212658</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>save-history-as-spritesheet.js</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>readable</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>0.9991641381639056</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>manage-storage.js</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>readable</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>0.998685585684143</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>$ColorBox.js</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>readable</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>0.9986497614299878</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>imgur.js</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>readable</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>0.9982722231652588</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>error-handling-enhanced.js</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>readable</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>0.9982360331341624</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>app 18.js</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>readable</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>0.9982163909589872</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>app 14.js</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>readable</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>0.9980581109412014</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Handles.js</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>readable</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>0.998051181435585</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>simulate-random-gestures.js</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>readable</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>0.9976005302742124</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>FileSystemSearch.js</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>readable</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>0.9969793558120728</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>ReactTransitionEvents.js</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>readable</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>0.996937612304464</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>TemplateCollection.js</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>readable</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>0.9953500535339117</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>TemplateLayout.js</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>readable</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>0.9947520731948316</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>ReactFragment.js</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>readable</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>0.9926329320296645</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>karma.ts.conf.js</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>readable</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>0.9921539388597012</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>karma.swc.conf.js</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>readable</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>0.9915705937892199</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>viewer.js</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>readable</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>0.9904294451698661</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>karma.babel.conf.js</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>readable</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>0.9897333821281791</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>app 8.js</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>readable</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>0.9895640052855015</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>defaultConfigExtended.client.js</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>readable</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>0.9890691703185439</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>konami.js</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>readable</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>0.9885048419237137</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>test-news.js</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>readable</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>0.9852399872615933</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>OnCanvasHelperLayer.js</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>readable</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>0.9833488259464502</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>$ToolBox.js</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>readable</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>0.9829033520072699</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>shallowEqual.spec.js</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>readable</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>0.9781858827918768</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>test.index.js</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>readable</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>0.9697920754551888</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>app 3.js</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>readable</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>0.9671657532453537</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>test.no-compat.index.js</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>readable</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>0.9668681211769581</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Core.js</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>readable</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>0.9644200950860977</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>read-files-in-dir.js</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>readable</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>0.9633175581693649</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>file-format-data.js</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>readable</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>0.9614700376987457</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>createKarmaConfig.js</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>readable</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>0.961313534528017</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>patching.spec.js</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>readable</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>0.9592512473464012</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>constants.js</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>readable</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>0.9553702957928181</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>errors.js</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>readable</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>0.9549291916191578</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>defaultConfig.js</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>readable</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>0.9536645486950874</v>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>appCommands.js</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>readable</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>0.9465425424277782</v>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>$FontBox.js</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>readable</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>0.9297945201396942</v>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>$ToolWindow.js</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>readable</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>0.9117343500256538</v>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>jsfiddle-integration-babel7v3.js</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>readable</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>0.9044465944170952</v>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>EventBus.js</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>readable</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>0.8853598609566689</v>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>createBabelConfig.js</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>readable</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>0.8641429841518402</v>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>devServer.js</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>readable</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>0.8346176594495773</v>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
           <t>defaultConfigExtended.js</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>readable</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>readable</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
         <v>0.8069297671318054</v>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>karmaServer.js</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>readable</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>0.7998275756835938</v>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>EventConstants.js</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>readable</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>0.7947515547275543</v>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>hooks.spec.js</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>readable</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>0.7744649201631546</v>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>eslint.config.js</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>readable</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>0.7695722430944443</v>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>alias.js</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>readable</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>0.6950132101774216</v>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>karma.sauce.conf.js</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>readable</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>0.6818802505731583</v>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>move-typedefs.js</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>readable</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>0.6785149127244949</v>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>app 17.js</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>readable</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>0.6538082808256149</v>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>eventemitter.spec.js</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>0.6319607198238373</v>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>patchKeyedChildren.spec.js</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>0.6240663677453995</v>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>webpackBuild.js</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>0.5897657424211502</v>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Provider.spec.js</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>0.5783461481332779</v>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>jest.config.js</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>readable</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>0.5781037360429764</v>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>130</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>wrapActionCreators.spec.js</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>0.555554062128067</v>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>patchMixedKeyed.spec.js</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>0.5387998446822166</v>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>132</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>webpackServer.js</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>0.5350759848952293</v>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>133</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>moduleBuild.js</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>0.5317714214324951</v>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>134</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>expressMiddleware.js</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>0.5054880660027266</v>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>135</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>cli.js</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>0.5008275506552309</v>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>136</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>patchNonKeyedChildren.spec.js</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>0.5000005804818102</v>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>svg.ext.spec.js</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>0.5000005733837725</v>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>select.spec.js</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>0.5000001455109668</v>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>index.js</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>0.4592667073011398</v>
+      </c>
+      <c r="E140" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
